--- a/AmpersandData/FormalAmpersand/Atoms.xlsx
+++ b/AmpersandData/FormalAmpersand/Atoms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Atoms" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>[Concept]</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Atom</t>
-  </si>
-  <si>
-    <t>pop</t>
   </si>
   <si>
     <t>repr</t>
@@ -411,7 +408,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,21 +478,21 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -512,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -526,9 +523,6 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -539,9 +533,6 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -549,9 +540,6 @@
       </c>
       <c r="B14">
         <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -561,9 +549,6 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -571,9 +556,6 @@
       </c>
       <c r="B16">
         <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/AmpersandData/FormalAmpersand/Atoms.xlsx
+++ b/AmpersandData/FormalAmpersand/Atoms.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="Atoms" sheetId="2" r:id="rId1"/>
     <sheet name="Concepts" sheetId="1" r:id="rId2"/>
     <sheet name="Relations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>[Concept]</t>
   </si>
@@ -67,13 +68,16 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,7 +123,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
     <a:clrScheme name="Kantoor">
       <a:dk1>
@@ -193,7 +197,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,7 +231,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -404,16 +406,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C16"/>
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,18 +426,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -443,40 +445,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -490,12 +492,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -504,7 +506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1</v>
       </c>
@@ -518,7 +520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -526,7 +528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -534,7 +536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1</v>
       </c>
@@ -542,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>2</v>
       </c>
@@ -550,7 +552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>3</v>
       </c>
@@ -564,28 +566,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AmpersandData/FormalAmpersand/Atoms.xlsx
+++ b/AmpersandData/FormalAmpersand/Atoms.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Relations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>[Concept]</t>
   </si>
@@ -40,9 +39,6 @@
     <t>isa</t>
   </si>
   <si>
-    <t>TEXT</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -70,7 +66,19 @@
     <t>r</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Representation</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -106,8 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -407,157 +417,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -567,28 +472,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AmpersandData/FormalAmpersand/Atoms.xlsx
+++ b/AmpersandData/FormalAmpersand/Atoms.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Atoms" sheetId="2" r:id="rId1"/>
-    <sheet name="Concepts" sheetId="1" r:id="rId2"/>
-    <sheet name="Relations" sheetId="3" r:id="rId3"/>
+    <sheet name="Concepts" sheetId="1" r:id="rId1"/>
+    <sheet name="Relations" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>[Concept]</t>
   </si>
@@ -42,15 +41,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>[Atom]</t>
-  </si>
-  <si>
-    <t>Atom</t>
-  </si>
-  <si>
-    <t>repr</t>
-  </si>
-  <si>
     <t>[Relation]</t>
   </si>
   <si>
@@ -66,26 +56,17 @@
     <t>r</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Identifier</t>
   </si>
   <si>
-    <t>Representation</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>r1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,10 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -133,7 +113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Kantoor">
       <a:dk1>
@@ -207,6 +187,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -241,6 +222,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -416,53 +398,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -471,130 +476,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>

--- a/AmpersandData/FormalAmpersand/Atoms.xlsx
+++ b/AmpersandData/FormalAmpersand/Atoms.xlsx
@@ -47,9 +47,6 @@
     <t>Relation</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>target</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>r1</t>
+  </si>
+  <si>
+    <t>src</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -480,7 +480,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,10 +496,10 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,7 +507,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>

--- a/AmpersandData/FormalAmpersand/Atoms.xlsx
+++ b/AmpersandData/FormalAmpersand/Atoms.xlsx
@@ -59,7 +59,7 @@
     <t>r1</t>
   </si>
   <si>
-    <t>src</t>
+    <t>source</t>
   </si>
 </sst>
 </file>

--- a/AmpersandData/FormalAmpersand/Atoms.xlsx
+++ b/AmpersandData/FormalAmpersand/Atoms.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7293F1F4-B0D0-2942-B03B-029D996A77FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="14800" windowHeight="7960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>[Concept]</t>
   </si>
@@ -53,19 +54,22 @@
     <t>r</t>
   </si>
   <si>
-    <t>Identifier</t>
-  </si>
-  <si>
     <t>r1</t>
   </si>
   <si>
     <t>source</t>
+  </si>
+  <si>
+    <t>RelationName</t>
+  </si>
+  <si>
+    <t>ConceptName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,6 +112,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -115,7 +122,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -153,9 +160,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,9 +195,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,9 +247,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -398,16 +439,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,18 +459,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -437,7 +478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -448,7 +489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -459,7 +500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -476,19 +517,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -496,18 +537,18 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -516,9 +557,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
